--- a/相关数据/题库/epqa.tk.xlsx
+++ b/相关数据/题库/epqa.tk.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wangyaohui\Desktop\题库\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7215"/>
+    <workbookView xWindow="11100" yWindow="0" windowWidth="10515" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,15 +66,9 @@
     <t>7</t>
   </si>
   <si>
-    <t>你曾无缘无故觉得“真是难受”吗？</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>你曾贪图过份外之物吗？</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -95,15 +84,9 @@
     <t>11</t>
   </si>
   <si>
-    <t>你在见到一小孩或一动物受折磨时是否会感到非常难过？</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>你是否常常为自己不该作而作了的事，不该说而说了的话而紧张吗？</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -167,15 +150,9 @@
     <t>23</t>
   </si>
   <si>
-    <t>你常有“厌倦”之感吗？</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>你曾拿过别人的东西吗（那怕一针一线）？</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -185,9 +162,6 @@
     <t>26</t>
   </si>
   <si>
-    <t>你是否从伤害你所宠爱的人而感到乐趣？</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -245,9 +219,6 @@
     <t>36</t>
   </si>
   <si>
-    <t>你在童年是否按照吩咐要做什么便做什么，毫无怨言？</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -281,33 +252,18 @@
     <t>42</t>
   </si>
   <si>
-    <t>当别人向你诉苦时，你是否容易理解他们的苦哀？</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
-    <t>你认为自己很紧张，如同“拉紧的弦”一样吗？</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
-    <t>在没有废纸篓时，你是否将废纸扔在地板上？</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>当你与别人在一起时，你是否言语很少？</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
-    <t>你是否认为结婚制度是过时了，应该废止？</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
@@ -365,9 +321,6 @@
     <t>56</t>
   </si>
   <si>
-    <t>你如知道自己工作有错误，这会使你感到难过吗？</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -389,9 +342,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>和别人玩游戏时，你有过欺骗行为吗？</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -419,9 +369,6 @@
     <t>65</t>
   </si>
   <si>
-    <t>你是否常常参加许多活动，超过你的时间所允许？</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
@@ -449,9 +396,6 @@
     <t>70</t>
   </si>
   <si>
-    <t>如果有把握永远不会被别人发现，你会逃税吗？</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
@@ -467,15 +411,9 @@
     <t>73</t>
   </si>
   <si>
-    <t>遇到一次难堪的经历后，你是否在一段很长的时间内还感到难受？</t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
-    <t>你患有“神经过敏”吗？</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -485,9 +423,6 @@
     <t>76</t>
   </si>
   <si>
-    <t>你与别人的友谊是否容易破裂，虽然不是你的过错？</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
@@ -497,9 +432,6 @@
     <t>78</t>
   </si>
   <si>
-    <t>当人家寻你的差错，找你工作中的缺点时，你是否容易在精神上受挫伤？</t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
@@ -521,9 +453,6 @@
     <t>82</t>
   </si>
   <si>
-    <t>你是否觉得有时浑身是劲，而有时又是懒洋洋的吗？</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
@@ -551,20 +480,178 @@
     <t>87</t>
   </si>
   <si>
-    <t>当你犯了错误时，你是否常常愿意承认它？</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
     <t>你会为一动物落入圈套被捉拿而感到很难过吗？</t>
+  </si>
+  <si>
+    <t>你在见到小孩或动物受折磨时是否会感到非常难过？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你常有"厌倦"之感吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你曾无缘无故觉得"真是难受"吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你患有"神经过敏"吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是否常常为自己不该做而做了的事,不该说而说了的话而紧张吗？</t>
+  </si>
+  <si>
+    <t>你在童年是否按照吩咐要做什么便做什么,毫无怨言？</t>
+  </si>
+  <si>
+    <t>当别人向你诉苦时,你是否容易理解他们的苦衷？</t>
+  </si>
+  <si>
+    <t>你认为自己很紧张,如同"拉紧的弦"一样吗？</t>
+  </si>
+  <si>
+    <t>在没有废纸篓时,你是否将废纸扔在地板上？</t>
+  </si>
+  <si>
+    <t>当你与别人在一起时,你是否言语很少？</t>
+  </si>
+  <si>
+    <t>你是否认为结婚制度是过时了,应该废止？</t>
+  </si>
+  <si>
+    <t>和别人玩游戏时,你有过欺骗行为吗？</t>
+  </si>
+  <si>
+    <t>你是否常常参加许多活动,超过你的时间所允许？</t>
+  </si>
+  <si>
+    <t>如果有把握永远不会被别人发现,你会逃税吗？</t>
+  </si>
+  <si>
+    <t>遇到一次难堪的经历后,你是否在一段很长的时间内还感到难受？</t>
+  </si>
+  <si>
+    <t>你与别人的友谊是否容易破裂,虽然不是你的过错？</t>
+  </si>
+  <si>
+    <t>当人家寻你的差错,找你工作中的缺点时,你是否容易在精神上受挫伤？</t>
+  </si>
+  <si>
+    <t>你是否觉得有时浑身是劲,而有时又是懒洋洋的吗？</t>
+  </si>
+  <si>
+    <t>当你犯了错误时,你是否常常愿意承认它？</t>
+  </si>
+  <si>
+    <r>
+      <t>你曾贪图过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之物吗？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你是否从伤害你所宠爱的人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而感到乐趣？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你曾拿过别人的东西吗（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怕一针一线）？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知道自己工作有错误,这会使你感到难过吗？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +664,7 @@
       <sz val="10"/>
       <color indexed="72"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -585,6 +673,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="72"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -612,11 +713,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,7 +787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,7 +822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,7 +999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,10 +1010,13 @@
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B89"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="55" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -969,659 +1079,660 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>